--- a/backend/outputs/cre_underwriting.xlsx
+++ b/backend/outputs/cre_underwriting.xlsx
@@ -506,7 +506,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10/16/2025 09:45:35 AM</t>
+          <t>10/16/2025 09:56:29 AM</t>
         </is>
       </c>
     </row>
